--- a/pred_ohlcv/54_21/2020-01-19 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 BTT ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>110125534.4548605</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>127719946.7272877</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>118696614.0179516</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>118860451.0179516</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>118894799.5410516</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>118894799.5410516</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>110974352.1382516</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>110974352.1382516</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>110974352.1382516</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>110975551.0937516</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>110975551.0937516</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>110975551.0937516</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>113886869.4104516</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>113886869.4104516</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>113886869.4104516</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>114828874.4367516</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>112656623.2265516</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>112708721.3386516</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>112668835.5013516</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>100334298.4937516</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>100386782.2515516</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>100386782.2515516</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>99701363.22515164</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>117584950.2190433</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>116180620.2683433</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>117722989.0553509</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>116094748.258627</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>115973326.851527</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>117010819.419527</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>116484355.715927</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>116517150.945327</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>116515541.069827</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>210940226.296878</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>243679475.1245394</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>230803079.5859525</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>245663782.6941525</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>238572243.7799525</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>262338681.2653525</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>257624356.7605525</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>257624356.7605525</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>246190463.4463525</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>243966645.6169525</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>213243452.7589525</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>213143452.7589525</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>213193452.7589525</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>209317137.2204525</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>209341444.3583525</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>209341444.3583525</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>206794727.4222524</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>194380441.8087524</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>192001814.1946524</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>194163856.5789025</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>192081352.5145026</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>192432557.6992026</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>187285566.8132026</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>187236915.0834025</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-54736200.79068567</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-54736200.79068567</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-54831694.67438567</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-54831694.67438567</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-54476464.64028566</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-54476464.64028566</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-54476464.64028566</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-54500285.50738566</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-54643312.93468566</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-55446394.93468566</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-55494121.93698566</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-55732916.52448566</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-55732916.52448566</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-55742662.39908566</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-55075209.10438567</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-44966147.85008567</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-44964303.63938567</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-47029552.55978566</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-47005731.69268566</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-46696207.88318566</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-45968847.86208566</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-45961851.80938566</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-47299619.25638566</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-54533711.18048567</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-54299573.9760839</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-54346749.3512839</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-54370345.3871839</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-54488409.1549839</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-50171346.32591262</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-50171346.32591262</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-47821722.26571263</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-47820511.26571263</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-47867809.36271263</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-47773263.47461263</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-47721718.96071263</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-47721718.96071263</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-54980259.88621364</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-56407327.09371364</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-58615379.52401364</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-58727145.88461364</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-58750753.06121364</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-69351271.46191365</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-69351271.46191365</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-69050217.39271365</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-57960141.17034495</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-58030464.65838995</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-58240891.81808995</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-58855694.44558994</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-57488643.95988994</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-56469848.59368994</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 BTT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 BTT ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>110317953.4467605</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>110125534.4548605</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>127719946.7272877</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>118696614.0179516</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>118860451.0179516</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>118894799.5410516</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>118894799.5410516</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>110974352.1382516</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>110974352.1382516</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>110974352.1382516</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>110975551.0937516</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>110975551.0937516</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>110975551.0937516</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>113886869.4104516</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>113886869.4104516</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>113886869.4104516</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>114828874.4367516</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>112656623.2265516</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>112708721.3386516</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>112668835.5013516</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>100334298.4937516</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>100386782.2515516</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>100386782.2515516</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>99701363.22515164</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>117584950.2190433</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>116180620.2683433</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>117722989.0553509</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>116094748.258627</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>115973326.851527</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>117010819.419527</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>116484355.715927</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>116517150.945327</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>116515541.069827</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>210940226.296878</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>234839197.7975428</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>237395840.5455428</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>265300499.227979</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>243679475.1245394</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>230803079.5859525</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>245663782.6941525</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>238572243.7799525</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>262338681.2653525</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>257624356.7605525</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>257624356.7605525</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>246190463.4463525</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>243966645.6169525</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>213243452.7589525</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>213143452.7589525</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>213193452.7589525</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>209317137.2204525</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>209341444.3583525</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>209341444.3583525</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>206794727.4222524</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>194380441.8087524</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>192001814.1946524</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>194163856.5789025</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>192081352.5145026</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>192432557.6992026</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>187285566.8132026</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>187236915.0834025</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-55742662.39908566</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-55075209.10438567</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-44966147.85008567</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-45176528.87828567</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-47029552.55978566</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-47029552.55978566</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-47005731.69268566</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-46696207.88318566</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-45968847.86208566</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-45961851.80938566</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-45961851.80938566</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-47864093.92058566</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-47299619.25638566</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-47299619.25638566</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-46958352.47488566</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-45722880.13568567</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-48585141.41258567</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-48576729.14878567</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-49576729.14878567</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-52546260.31878567</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-54533711.18048567</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-54299573.9760839</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-54306583.9760839</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-54346749.3512839</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-54370345.3871839</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-54488409.1549839</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-50171346.32591262</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-50171346.32591262</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-47821722.26571263</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-47820511.26571263</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-47867809.36271263</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-47773263.47461263</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-47721718.96071263</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-47721718.96071263</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-47721718.96071263</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-47721718.96071263</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-47720405.74031264</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-52178699.66341264</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-52062122.37266888</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-52065702.37266888</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-57440516.63526887</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-57573316.84006888</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-54980259.88621364</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-56407327.09371364</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-58615379.52401364</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-58727145.88461364</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-58750753.06121364</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-69351271.46191365</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-69351271.46191365</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-69050217.39271365</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-57960141.17034495</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-58030464.65838995</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-58242279.05188995</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-58240891.81808995</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-58855694.44558994</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-60852837.53828994</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-57488643.95988994</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-56469848.59368994</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
